--- a/EE3204-EE3204E-Lab-GMohan-2014/Ex4/Report/ErrorProbability.xlsx
+++ b/EE3204-EE3204E-Lab-GMohan-2014/Ex4/Report/ErrorProbability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Pf(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR(Kbytes/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg(T)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg(DR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +84,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -68,40 +99,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -117,6 +120,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -125,17 +143,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -195,7 +218,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$1:$A$25</c:f>
+              <c:f>工作表1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -231,7 +254,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$1:$D$25</c:f>
+              <c:f>工作表1!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -275,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090573448"/>
-        <c:axId val="2090577112"/>
+        <c:axId val="2110354472"/>
+        <c:axId val="2110359096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090573448"/>
+        <c:axId val="2110354472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,12 +312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090577112"/>
+        <c:crossAx val="2110359096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2090577112"/>
+        <c:axId val="2110359096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090573448"/>
+        <c:crossAx val="2110354472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -357,7 +380,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$1:$A$25</c:f>
+              <c:f>工作表1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -393,7 +416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$E$1:$E$25</c:f>
+              <c:f>工作表1!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -437,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091380136"/>
-        <c:axId val="2091240488"/>
+        <c:axId val="2109364504"/>
+        <c:axId val="2109367336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091380136"/>
+        <c:axId val="2109364504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,12 +474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091240488"/>
+        <c:crossAx val="2109367336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091240488"/>
+        <c:axId val="2109367336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091380136"/>
+        <c:crossAx val="2109364504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -490,14 +513,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -520,14 +543,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -871,339 +894,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="2">
         <v>2.6440000000000001</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>22614.599609000001</v>
       </c>
-      <c r="D1">
-        <f>AVERAGE(B1,B2,B3)</f>
+      <c r="D2" s="3">
+        <f>AVERAGE(B2,B3,B4)</f>
         <v>2.7699999999999996</v>
       </c>
-      <c r="E1">
-        <f>AVERAGE(C1:C3)</f>
+      <c r="E2" s="3">
+        <f>AVERAGE(C2:C4)</f>
         <v>21620.307942666666</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2">
         <v>2.9140000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>20519.216797000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2">
         <v>2.7519999999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>21727.107422000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>3.0289999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>19740.177734000001</v>
       </c>
-      <c r="D4">
-        <f>AVERAGE(B4:B6)</f>
+      <c r="D5" s="3">
+        <f>AVERAGE(B5:B7)</f>
         <v>2.954333333333333</v>
       </c>
-      <c r="E4">
-        <f>AVERAGE(C4:C6)</f>
+      <c r="E5" s="3">
+        <f>AVERAGE(C5:C7)</f>
         <v>20255.247395666665</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3">
         <v>2.839</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>21061.289062</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="B6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3">
         <v>2.9950000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>19964.275390999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1">
-      <c r="A7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1">
+      <c r="A8" s="5">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="2">
         <v>3.677</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="2">
         <v>16261.354492</v>
       </c>
-      <c r="D7">
-        <f>AVERAGE(B7:B9)</f>
+      <c r="D8" s="3">
+        <f>AVERAGE(B8:B10)</f>
         <v>3.5089999999999999</v>
       </c>
-      <c r="E7">
-        <f>AVERAGE(C7:C9)</f>
+      <c r="E8" s="3">
+        <f>AVERAGE(C8:C10)</f>
         <v>17123.355468666665</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="B8" s="2">
+    <row r="9" spans="1:8" ht="16" thickBot="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2">
         <v>3.1709999999999998</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>18856.197265999999</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="B9" s="2">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2">
         <v>3.6789999999999998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>16252.514648</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1">
+      <c r="A11" s="5">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="3">
         <v>4.4820000000000002</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="3">
         <v>13340.696289</v>
       </c>
-      <c r="D10">
-        <f>AVERAGE(B10:B12)</f>
+      <c r="D11" s="3">
+        <f>AVERAGE(B11:B13)</f>
         <v>4.6680000000000001</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(C10:C12)</f>
+      <c r="E11" s="3">
+        <f>AVERAGE(C11:C13)</f>
         <v>12831.494465999998</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="B11">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3">
         <v>4.5810000000000004</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="3">
         <v>13052.390625</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1">
-      <c r="B12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3">
         <v>4.9409999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="3">
         <v>12101.396484000001</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickBot="1">
+      <c r="A14" s="5">
         <v>50</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="2">
         <v>5.6369999999999996</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="2">
         <v>10607.237305000001</v>
       </c>
-      <c r="D13">
-        <f>AVERAGE(B13:B15)</f>
+      <c r="D14" s="3">
+        <f>AVERAGE(B14:B16)</f>
         <v>5.4319999999999995</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(C13:C15)</f>
+      <c r="E14" s="3">
+        <f>AVERAGE(C14:C16)</f>
         <v>11032.476562666669</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="B14" s="2">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2">
         <v>5.0739999999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>11784.194336</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1">
-      <c r="B15" s="2">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2">
         <v>5.585</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>10705.998046999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
         <v>60</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="2">
         <v>5.8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="2">
         <v>10309.137694999999</v>
       </c>
-      <c r="D16">
-        <f>AVERAGE(B16:B18)</f>
+      <c r="D17" s="3">
+        <f>AVERAGE(B17:B19)</f>
         <v>5.8129999999999997</v>
       </c>
-      <c r="E16">
-        <f>AVERAGE(C16:C18)</f>
+      <c r="E17" s="3">
+        <f>AVERAGE(C17:C19)</f>
         <v>10288.403320333333</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="B17" s="2">
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2">
         <v>5.7130000000000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>10466.129883</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="B18" s="2">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2">
         <v>5.9260000000000002</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>10089.942383</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1">
-      <c r="A19">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
         <v>70</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="2">
         <v>8.0470000000000006</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="2">
         <v>7430.4711909999996</v>
       </c>
-      <c r="D19">
-        <f>AVERAGE(B19:B21)</f>
+      <c r="D20" s="3">
+        <f>AVERAGE(B20:B22)</f>
         <v>8.4429999999999996</v>
       </c>
-      <c r="E19">
-        <f>AVERAGE(C19:C21)</f>
+      <c r="E20" s="3">
+        <f>AVERAGE(C20:C22)</f>
         <v>7092.8850910000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1">
-      <c r="B20" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2">
         <v>8.859</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>6749.4072269999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
-      <c r="B21" s="2">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2">
         <v>8.423</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>7098.7768550000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1">
-      <c r="A22">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
         <v>80</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="2">
         <v>11.01</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="2">
         <v>5430.7900390000004</v>
       </c>
-      <c r="D22">
-        <f>AVERAGE(B22:B24)</f>
+      <c r="D23" s="3">
+        <f>AVERAGE(B23:B25)</f>
         <v>11.351333333333335</v>
       </c>
-      <c r="E22">
-        <f>AVERAGE(C22:C24)</f>
+      <c r="E23" s="3">
+        <f>AVERAGE(C23:C25)</f>
         <v>5273.7929686666675</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="B23" s="2">
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2">
         <v>11.907999999999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>5021.2460940000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
-      <c r="B24" s="2">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2">
         <v>11.135999999999999</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>5369.3427730000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
         <v>90</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="3">
         <v>19.529</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="3">
         <v>3061.7543949999999</v>
       </c>
-      <c r="D25">
-        <f>AVERAGE(B25:B27)</f>
+      <c r="D26" s="3">
+        <f>AVERAGE(B26:B28)</f>
         <v>19.056000000000001</v>
       </c>
-      <c r="E25">
-        <f>AVERAGE(C25:C27)</f>
+      <c r="E26" s="3">
+        <f>AVERAGE(C26:C28)</f>
         <v>3142.0717776666665</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="B26">
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3">
         <v>18.07</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="3">
         <v>3308.9650879999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3">
         <v>19.568999999999999</v>
       </c>
-      <c r="C27">
+      <c r="C28" s="3">
         <v>3055.4958499999998</v>
       </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
